--- a/CISSP/source/Categories-Video-Reading.xlsx
+++ b/CISSP/source/Categories-Video-Reading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\flashcard-supplemental\CISSP\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C62EE1-99B2-4A32-8DAB-0FB0106F7EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D66081-6817-4739-A5A7-850FD89B29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97FF94A0-594A-4A43-ADA0-7722C6EBC347}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97FF94A0-594A-4A43-ADA0-7722C6EBC347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F32A66-A218-4128-BC8B-E1309D1BAB88}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +495,12 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -511,6 +517,9 @@
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -549,10 +558,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -560,10 +569,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -571,20 +580,26 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -592,7 +607,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -600,7 +615,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -608,20 +626,26 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{D1F32A66-A218-4128-BC8B-E1309D1BAB88}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/CISSP/source/Categories-Video-Reading.xlsx
+++ b/CISSP/source/Categories-Video-Reading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\flashcard-supplemental\CISSP\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D66081-6817-4739-A5A7-850FD89B29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B07C2-B4EF-480D-8595-C5EBAA7493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97FF94A0-594A-4A43-ADA0-7722C6EBC347}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -471,7 +471,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +593,9 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">

--- a/CISSP/source/Categories-Video-Reading.xlsx
+++ b/CISSP/source/Categories-Video-Reading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\flashcard-supplemental\CISSP\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B07C2-B4EF-480D-8595-C5EBAA7493DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F05A29-71A5-4CAD-BBDC-CDDE5F49106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97FF94A0-594A-4A43-ADA0-7722C6EBC347}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Security Models</t>
+  </si>
+  <si>
+    <t>IAM</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F32A66-A218-4128-BC8B-E1309D1BAB88}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +645,18 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
